--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2277,28 +2277,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1790.573972305135</v>
+        <v>1894.633563004923</v>
       </c>
       <c r="AB2" t="n">
-        <v>2449.942303456388</v>
+        <v>2592.321226236978</v>
       </c>
       <c r="AC2" t="n">
-        <v>2216.123248530128</v>
+        <v>2344.913726750612</v>
       </c>
       <c r="AD2" t="n">
-        <v>1790573.972305135</v>
+        <v>1894633.563004923</v>
       </c>
       <c r="AE2" t="n">
-        <v>2449942.303456388</v>
+        <v>2592321.226236978</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.957487483808157e-07</v>
+        <v>1.683362664407896e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.34722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2216123.248530129</v>
+        <v>2344913.726750612</v>
       </c>
     </row>
     <row r="3">
@@ -2383,28 +2383,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>834.3647464360565</v>
+        <v>907.1807950135509</v>
       </c>
       <c r="AB3" t="n">
-        <v>1141.614655648537</v>
+        <v>1241.244785729606</v>
       </c>
       <c r="AC3" t="n">
-        <v>1032.660555179672</v>
+        <v>1122.78212547757</v>
       </c>
       <c r="AD3" t="n">
-        <v>834364.7464360566</v>
+        <v>907180.7950135509</v>
       </c>
       <c r="AE3" t="n">
-        <v>1141614.655648537</v>
+        <v>1241244.785729606</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.574804888789425e-06</v>
+        <v>2.662285800334551e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.86675347222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1032660.555179672</v>
+        <v>1122782.12547757</v>
       </c>
     </row>
     <row r="4">
@@ -2489,28 +2489,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>661.3801741514662</v>
+        <v>723.6964871783589</v>
       </c>
       <c r="AB4" t="n">
-        <v>904.9295323080381</v>
+        <v>990.1934609931346</v>
       </c>
       <c r="AC4" t="n">
-        <v>818.5643278211337</v>
+        <v>895.6907868212</v>
       </c>
       <c r="AD4" t="n">
-        <v>661380.1741514662</v>
+        <v>723696.4871783589</v>
       </c>
       <c r="AE4" t="n">
-        <v>904929.5323080381</v>
+        <v>990193.4609931346</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.801777716479417e-06</v>
+        <v>3.045994627073941e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.24565972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>818564.3278211337</v>
+        <v>895690.7868212</v>
       </c>
     </row>
     <row r="5">
@@ -2595,28 +2595,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>568.0527040403952</v>
+        <v>620.210465917871</v>
       </c>
       <c r="AB5" t="n">
-        <v>777.2347703846754</v>
+        <v>848.5993212234924</v>
       </c>
       <c r="AC5" t="n">
-        <v>703.0565747550127</v>
+        <v>767.6101930225494</v>
       </c>
       <c r="AD5" t="n">
-        <v>568052.7040403952</v>
+        <v>620210.465917871</v>
       </c>
       <c r="AE5" t="n">
-        <v>777234.7703846754</v>
+        <v>848599.3212234924</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.928568790112905e-06</v>
+        <v>3.260341227942758e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.50564236111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>703056.5747550126</v>
+        <v>767610.1930225494</v>
       </c>
     </row>
     <row r="6">
@@ -2701,28 +2701,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>548.426659371427</v>
+        <v>600.4138290483106</v>
       </c>
       <c r="AB6" t="n">
-        <v>750.3815502286102</v>
+        <v>821.5126892925804</v>
       </c>
       <c r="AC6" t="n">
-        <v>678.766188241911</v>
+        <v>743.1086712267967</v>
       </c>
       <c r="AD6" t="n">
-        <v>548426.659371427</v>
+        <v>600413.8290483106</v>
       </c>
       <c r="AE6" t="n">
-        <v>750381.5502286102</v>
+        <v>821512.6892925804</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.95685869829475e-06</v>
+        <v>3.30816672136194e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.35373263888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>678766.188241911</v>
+        <v>743108.6712267967</v>
       </c>
     </row>
   </sheetData>
@@ -2998,28 +2998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1234.311674897851</v>
+        <v>1315.036307157283</v>
       </c>
       <c r="AB2" t="n">
-        <v>1688.839687583167</v>
+        <v>1799.290690759952</v>
       </c>
       <c r="AC2" t="n">
-        <v>1527.659198101617</v>
+        <v>1627.568912554166</v>
       </c>
       <c r="AD2" t="n">
-        <v>1234311.674897851</v>
+        <v>1315036.307157283</v>
       </c>
       <c r="AE2" t="n">
-        <v>1688839.687583167</v>
+        <v>1799290.690759952</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.228765253606165e-06</v>
+        <v>2.127964616502841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.05946180555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1527659.198101617</v>
+        <v>1627568.912554166</v>
       </c>
     </row>
     <row r="3">
@@ -3104,28 +3104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>652.0852003044811</v>
+        <v>712.6286073676418</v>
       </c>
       <c r="AB3" t="n">
-        <v>892.2117390252878</v>
+        <v>975.0498995557151</v>
       </c>
       <c r="AC3" t="n">
-        <v>807.060302879754</v>
+        <v>881.992505633246</v>
       </c>
       <c r="AD3" t="n">
-        <v>652085.2003044811</v>
+        <v>712628.6073676419</v>
       </c>
       <c r="AE3" t="n">
-        <v>892211.7390252878</v>
+        <v>975049.8995557152</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.77563436741831e-06</v>
+        <v>3.075027630072962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.80555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>807060.302879754</v>
+        <v>881992.5056332459</v>
       </c>
     </row>
     <row r="4">
@@ -3210,28 +3210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>521.7269081449919</v>
+        <v>582.184974353581</v>
       </c>
       <c r="AB4" t="n">
-        <v>713.84977269071</v>
+        <v>796.5711660989398</v>
       </c>
       <c r="AC4" t="n">
-        <v>645.7209522795564</v>
+        <v>720.5475320011095</v>
       </c>
       <c r="AD4" t="n">
-        <v>521726.9081449918</v>
+        <v>582184.974353581</v>
       </c>
       <c r="AE4" t="n">
-        <v>713849.77269071</v>
+        <v>796571.1660989398</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.979816865934536e-06</v>
+        <v>3.428629044888793e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.58810763888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>645720.9522795564</v>
+        <v>720547.5320011096</v>
       </c>
     </row>
     <row r="5">
@@ -3316,28 +3316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>511.2935098175958</v>
+        <v>561.6610976908759</v>
       </c>
       <c r="AB5" t="n">
-        <v>699.5743368101182</v>
+        <v>768.4894925994918</v>
       </c>
       <c r="AC5" t="n">
-        <v>632.8079439637081</v>
+        <v>695.1459340075725</v>
       </c>
       <c r="AD5" t="n">
-        <v>511293.5098175958</v>
+        <v>561661.0976908759</v>
       </c>
       <c r="AE5" t="n">
-        <v>699574.3368101182</v>
+        <v>768489.4925994917</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.999810138021981e-06</v>
+        <v>3.463253213699993e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.48177083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>632807.9439637081</v>
+        <v>695145.9340075725</v>
       </c>
     </row>
   </sheetData>
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.9012108319914</v>
+        <v>510.5934045082836</v>
       </c>
       <c r="AB2" t="n">
-        <v>623.7841496022533</v>
+        <v>698.6164218394508</v>
       </c>
       <c r="AC2" t="n">
-        <v>564.2510658507661</v>
+        <v>631.9414510533991</v>
       </c>
       <c r="AD2" t="n">
-        <v>455901.2108319913</v>
+        <v>510593.4045082836</v>
       </c>
       <c r="AE2" t="n">
-        <v>623784.1496022532</v>
+        <v>698616.4218394508</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.993743494387736e-06</v>
+        <v>3.772591724485001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.73177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>564251.065850766</v>
+        <v>631941.4510533991</v>
       </c>
     </row>
     <row r="3">
@@ -3719,28 +3719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>444.0047291914744</v>
+        <v>498.6969228677667</v>
       </c>
       <c r="AB3" t="n">
-        <v>607.5068585859691</v>
+        <v>682.3391308231667</v>
       </c>
       <c r="AC3" t="n">
-        <v>549.5272566437545</v>
+        <v>617.2176418463877</v>
       </c>
       <c r="AD3" t="n">
-        <v>444004.7291914744</v>
+        <v>498696.9228677667</v>
       </c>
       <c r="AE3" t="n">
-        <v>607506.8585859691</v>
+        <v>682339.1308231667</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.030495023204765e-06</v>
+        <v>3.842133525557998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.51909722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>549527.2566437545</v>
+        <v>617217.6418463876</v>
       </c>
     </row>
   </sheetData>
@@ -4016,28 +4016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>672.2109514814916</v>
+        <v>738.5167747337067</v>
       </c>
       <c r="AB2" t="n">
-        <v>919.7486796711519</v>
+        <v>1010.471232251304</v>
       </c>
       <c r="AC2" t="n">
-        <v>831.9691565587158</v>
+        <v>914.0332760505203</v>
       </c>
       <c r="AD2" t="n">
-        <v>672210.9514814917</v>
+        <v>738516.7747337067</v>
       </c>
       <c r="AE2" t="n">
-        <v>919748.6796711519</v>
+        <v>1010471.232251304</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.685570914784506e-06</v>
+        <v>3.070744143244653e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.27473958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>831969.1565587157</v>
+        <v>914033.2760505202</v>
       </c>
     </row>
     <row r="3">
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>456.8398623613287</v>
+        <v>513.7343061805917</v>
       </c>
       <c r="AB3" t="n">
-        <v>625.0684540350754</v>
+        <v>702.9139420743052</v>
       </c>
       <c r="AC3" t="n">
-        <v>565.4127980710521</v>
+        <v>635.8288219886465</v>
       </c>
       <c r="AD3" t="n">
-        <v>456839.8623613287</v>
+        <v>513734.3061805917</v>
       </c>
       <c r="AE3" t="n">
-        <v>625068.4540350754</v>
+        <v>702913.9420743051</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.043038150015597e-06</v>
+        <v>3.721971812967506e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.95269097222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>565412.7980710521</v>
+        <v>635828.8219886465</v>
       </c>
     </row>
   </sheetData>
@@ -4419,28 +4419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.2847494059577</v>
+        <v>492.015397862341</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.048774012613</v>
+        <v>673.1971735426636</v>
       </c>
       <c r="AC2" t="n">
-        <v>543.685522598101</v>
+        <v>608.9481801379184</v>
       </c>
       <c r="AD2" t="n">
-        <v>439284.7494059576</v>
+        <v>492015.397862341</v>
       </c>
       <c r="AE2" t="n">
-        <v>601048.774012613</v>
+        <v>673197.1735426636</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.972168299910794e-06</v>
+        <v>3.864814434276603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>543685.5225981009</v>
+        <v>608948.1801379183</v>
       </c>
     </row>
   </sheetData>
@@ -4716,28 +4716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1348.256931069149</v>
+        <v>1439.838289479294</v>
       </c>
       <c r="AB2" t="n">
-        <v>1844.744613986658</v>
+        <v>1970.050268847802</v>
       </c>
       <c r="AC2" t="n">
-        <v>1668.684777143098</v>
+        <v>1782.031436171885</v>
       </c>
       <c r="AD2" t="n">
-        <v>1348256.931069149</v>
+        <v>1439838.289479294</v>
       </c>
       <c r="AE2" t="n">
-        <v>1844744.613986658</v>
+        <v>1970050.268847802</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.166135216618203e-06</v>
+        <v>2.006313725349868e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1668684.777143097</v>
+        <v>1782031.436171885</v>
       </c>
     </row>
     <row r="3">
@@ -4822,28 +4822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>705.0487869273929</v>
+        <v>766.0177745214691</v>
       </c>
       <c r="AB3" t="n">
-        <v>964.6788548312894</v>
+        <v>1048.099313419403</v>
       </c>
       <c r="AC3" t="n">
-        <v>872.6112588614668</v>
+        <v>948.0701859632795</v>
       </c>
       <c r="AD3" t="n">
-        <v>705048.7869273929</v>
+        <v>766017.774521469</v>
       </c>
       <c r="AE3" t="n">
-        <v>964678.8548312894</v>
+        <v>1048099.313419403</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.720343778074281e-06</v>
+        <v>2.959819140253892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.07465277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>872611.2588614668</v>
+        <v>948070.1859632796</v>
       </c>
     </row>
     <row r="4">
@@ -4928,28 +4928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>553.3777555081997</v>
+        <v>614.3466535937246</v>
       </c>
       <c r="AB4" t="n">
-        <v>757.1558583898882</v>
+        <v>840.5761945084531</v>
       </c>
       <c r="AC4" t="n">
-        <v>684.893965940078</v>
+        <v>760.3527822606643</v>
       </c>
       <c r="AD4" t="n">
-        <v>553377.7555081997</v>
+        <v>614346.6535937246</v>
       </c>
       <c r="AE4" t="n">
-        <v>757155.8583898882</v>
+        <v>840576.1945084531</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.933221125341693e-06</v>
+        <v>3.326070615685076e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.74435763888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>684893.965940078</v>
+        <v>760352.7822606643</v>
       </c>
     </row>
     <row r="5">
@@ -5034,28 +5034,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>520.1498925358546</v>
+        <v>570.9431736399143</v>
       </c>
       <c r="AB5" t="n">
-        <v>711.69203036127</v>
+        <v>781.1896384092562</v>
       </c>
       <c r="AC5" t="n">
-        <v>643.7691418496278</v>
+        <v>706.6339957260197</v>
       </c>
       <c r="AD5" t="n">
-        <v>520149.8925358546</v>
+        <v>570943.1736399144</v>
       </c>
       <c r="AE5" t="n">
-        <v>711692.0303612699</v>
+        <v>781189.6384092562</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.989120572645726e-06</v>
+        <v>3.422244564269523e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>643769.1418496277</v>
+        <v>706633.9957260197</v>
       </c>
     </row>
   </sheetData>
@@ -5331,28 +5331,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>446.0448144210569</v>
+        <v>497.7497568271357</v>
       </c>
       <c r="AB2" t="n">
-        <v>610.2981931992921</v>
+        <v>681.0431764603586</v>
       </c>
       <c r="AC2" t="n">
-        <v>552.0521901992448</v>
+        <v>616.0453715490828</v>
       </c>
       <c r="AD2" t="n">
-        <v>446044.8144210569</v>
+        <v>497749.7568271357</v>
       </c>
       <c r="AE2" t="n">
-        <v>610298.1931992921</v>
+        <v>681043.1764603587</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.909571878290967e-06</v>
+        <v>3.828043080691247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.01866319444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>552052.1901992448</v>
+        <v>616045.3715490828</v>
       </c>
     </row>
   </sheetData>
@@ -5628,28 +5628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>925.6178595448575</v>
+        <v>994.3177112636131</v>
       </c>
       <c r="AB2" t="n">
-        <v>1266.471190807221</v>
+        <v>1360.469358752376</v>
       </c>
       <c r="AC2" t="n">
-        <v>1145.60095786006</v>
+        <v>1230.628072583786</v>
       </c>
       <c r="AD2" t="n">
-        <v>925617.8595448575</v>
+        <v>994317.7112636131</v>
       </c>
       <c r="AE2" t="n">
-        <v>1266471.190807221</v>
+        <v>1360469.358752376</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.43557973766083e-06</v>
+        <v>2.542518388877153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.04340277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1145600.95786006</v>
+        <v>1230628.072583786</v>
       </c>
     </row>
     <row r="3">
@@ -5734,28 +5734,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>533.5606609227219</v>
+        <v>582.6320091528477</v>
       </c>
       <c r="AB3" t="n">
-        <v>730.0412353095272</v>
+        <v>797.18281883308</v>
       </c>
       <c r="AC3" t="n">
-        <v>660.367124430894</v>
+        <v>721.1008094567633</v>
       </c>
       <c r="AD3" t="n">
-        <v>533560.660922722</v>
+        <v>582632.0091528477</v>
       </c>
       <c r="AE3" t="n">
-        <v>730041.2353095273</v>
+        <v>797182.81883308</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.94807354391019e-06</v>
+        <v>3.450183001570716e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.08506944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>660367.124430894</v>
+        <v>721100.8094567633</v>
       </c>
     </row>
     <row r="4">
@@ -5840,28 +5840,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>485.0143853454341</v>
+        <v>543.8145549567521</v>
       </c>
       <c r="AB4" t="n">
-        <v>663.6180793541578</v>
+        <v>744.0710654967654</v>
       </c>
       <c r="AC4" t="n">
-        <v>600.2833012544204</v>
+        <v>673.0579673160528</v>
       </c>
       <c r="AD4" t="n">
-        <v>485014.3853454341</v>
+        <v>543814.5549567521</v>
       </c>
       <c r="AE4" t="n">
-        <v>663618.0793541578</v>
+        <v>744071.0654967654</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.023803211202571e-06</v>
+        <v>3.584305869582329e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.67057291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>600283.3012544204</v>
+        <v>673057.9673160528</v>
       </c>
     </row>
   </sheetData>
@@ -6137,28 +6137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1118.909801719569</v>
+        <v>1198.842083924153</v>
       </c>
       <c r="AB2" t="n">
-        <v>1530.941753529313</v>
+        <v>1640.308628405039</v>
       </c>
       <c r="AC2" t="n">
-        <v>1384.830821262721</v>
+        <v>1483.75987509768</v>
       </c>
       <c r="AD2" t="n">
-        <v>1118909.801719569</v>
+        <v>1198842.083924154</v>
       </c>
       <c r="AE2" t="n">
-        <v>1530941.753529313</v>
+        <v>1640308.628405039</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.294940892389743e-06</v>
+        <v>2.258263843119297e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.34114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1384830.821262721</v>
+        <v>1483759.87509768</v>
       </c>
     </row>
     <row r="3">
@@ -6243,28 +6243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>613.0354185101826</v>
+        <v>673.0485686731364</v>
       </c>
       <c r="AB3" t="n">
-        <v>838.782104819542</v>
+        <v>920.8947444658228</v>
       </c>
       <c r="AC3" t="n">
-        <v>758.7299179736418</v>
+        <v>833.0058425378952</v>
       </c>
       <c r="AD3" t="n">
-        <v>613035.4185101825</v>
+        <v>673048.5686731364</v>
       </c>
       <c r="AE3" t="n">
-        <v>838782.104819542</v>
+        <v>920894.7444658228</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.828966287135516e-06</v>
+        <v>3.18955750088335e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.56901041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>758729.9179736418</v>
+        <v>833005.8425378952</v>
       </c>
     </row>
     <row r="4">
@@ -6349,28 +6349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>503.2207613149304</v>
+        <v>553.3170606386302</v>
       </c>
       <c r="AB4" t="n">
-        <v>688.5288461642429</v>
+        <v>757.0728129916745</v>
       </c>
       <c r="AC4" t="n">
-        <v>622.8166194426317</v>
+        <v>684.818846278115</v>
       </c>
       <c r="AD4" t="n">
-        <v>503220.7613149304</v>
+        <v>553317.0606386302</v>
       </c>
       <c r="AE4" t="n">
-        <v>688528.8461642428</v>
+        <v>757072.8129916745</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.004082155122263e-06</v>
+        <v>3.494944283673973e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.55772569444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>622816.6194426317</v>
+        <v>684818.8462781149</v>
       </c>
     </row>
     <row r="5">
@@ -6455,28 +6455,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>502.4226518570084</v>
+        <v>552.5189511807081</v>
       </c>
       <c r="AB5" t="n">
-        <v>687.4368375938096</v>
+        <v>755.9808044212414</v>
       </c>
       <c r="AC5" t="n">
-        <v>621.8288306375169</v>
+        <v>683.8310574730001</v>
       </c>
       <c r="AD5" t="n">
-        <v>502422.6518570084</v>
+        <v>552518.9511807081</v>
       </c>
       <c r="AE5" t="n">
-        <v>687436.8375938096</v>
+        <v>755980.8044212414</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.009932351157454e-06</v>
+        <v>3.505146514724884e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.52734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>621828.8306375169</v>
+        <v>683831.0574730001</v>
       </c>
     </row>
   </sheetData>
@@ -6752,28 +6752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1627.640620803037</v>
+        <v>1730.844281840939</v>
       </c>
       <c r="AB2" t="n">
-        <v>2227.009703819062</v>
+        <v>2368.217505875307</v>
       </c>
       <c r="AC2" t="n">
-        <v>2014.46702331432</v>
+        <v>2142.198150928712</v>
       </c>
       <c r="AD2" t="n">
-        <v>1627640.620803037</v>
+        <v>1730844.281840939</v>
       </c>
       <c r="AE2" t="n">
-        <v>2227009.703819062</v>
+        <v>2368217.505875307</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.050859114511299e-06</v>
+        <v>1.786390847532508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.43576388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2014467.02331432</v>
+        <v>2142198.150928712</v>
       </c>
     </row>
     <row r="3">
@@ -6858,28 +6858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>788.9119423174578</v>
+        <v>861.1885787298319</v>
       </c>
       <c r="AB3" t="n">
-        <v>1079.424123817275</v>
+        <v>1178.316206376842</v>
       </c>
       <c r="AC3" t="n">
-        <v>976.405400421426</v>
+        <v>1065.859361417417</v>
       </c>
       <c r="AD3" t="n">
-        <v>788911.9423174579</v>
+        <v>861188.5787298318</v>
       </c>
       <c r="AE3" t="n">
-        <v>1079424.123817275</v>
+        <v>1178316.206376842</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.622686087444369e-06</v>
+        <v>2.75845880289768e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.58680555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>976405.4004214259</v>
+        <v>1065859.361417417</v>
       </c>
     </row>
     <row r="4">
@@ -6964,28 +6964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>627.6417094435495</v>
+        <v>679.3289255713473</v>
       </c>
       <c r="AB4" t="n">
-        <v>858.7670764586521</v>
+        <v>929.4878058437466</v>
       </c>
       <c r="AC4" t="n">
-        <v>776.8075519685995</v>
+        <v>840.7787941983476</v>
       </c>
       <c r="AD4" t="n">
-        <v>627641.7094435495</v>
+        <v>679328.9255713474</v>
       </c>
       <c r="AE4" t="n">
-        <v>858767.0764586522</v>
+        <v>929487.8058437466</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.845261925328949e-06</v>
+        <v>3.136822975780932e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.06770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>776807.5519685994</v>
+        <v>840778.7941983476</v>
       </c>
     </row>
     <row r="5">
@@ -7070,28 +7070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>544.6058408174629</v>
+        <v>596.2077160906891</v>
       </c>
       <c r="AB5" t="n">
-        <v>745.1537377204583</v>
+        <v>815.7576999833552</v>
       </c>
       <c r="AC5" t="n">
-        <v>674.0373108222565</v>
+        <v>737.9029300200658</v>
       </c>
       <c r="AD5" t="n">
-        <v>544605.8408174629</v>
+        <v>596207.7160906892</v>
       </c>
       <c r="AE5" t="n">
-        <v>745153.7377204583</v>
+        <v>815757.6999833552</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.958855598194356e-06</v>
+        <v>3.329924691074836e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.42534722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>674037.3108222565</v>
+        <v>737902.9300200659</v>
       </c>
     </row>
     <row r="6">
@@ -7176,28 +7176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>540.3001952964029</v>
+        <v>591.9020705696291</v>
       </c>
       <c r="AB6" t="n">
-        <v>739.2625635668697</v>
+        <v>809.8665258297666</v>
       </c>
       <c r="AC6" t="n">
-        <v>668.7083820615713</v>
+        <v>732.5740012593808</v>
       </c>
       <c r="AD6" t="n">
-        <v>540300.1952964029</v>
+        <v>591902.0705696291</v>
       </c>
       <c r="AE6" t="n">
-        <v>739262.5635668697</v>
+        <v>809866.5258297666</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.96544346654612e-06</v>
+        <v>3.341123630652775e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>668708.3820615713</v>
+        <v>732574.0012593808</v>
       </c>
     </row>
   </sheetData>
@@ -7473,28 +7473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>745.9023523061121</v>
+        <v>813.15937683419</v>
       </c>
       <c r="AB2" t="n">
-        <v>1020.576505314555</v>
+        <v>1112.600533444381</v>
       </c>
       <c r="AC2" t="n">
-        <v>923.1741160354549</v>
+        <v>1006.415500077105</v>
       </c>
       <c r="AD2" t="n">
-        <v>745902.3523061121</v>
+        <v>813159.37683419</v>
       </c>
       <c r="AE2" t="n">
-        <v>1020576.505314555</v>
+        <v>1112600.533444381</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.595648224004269e-06</v>
+        <v>2.877331341983623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.84765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>923174.1160354549</v>
+        <v>1006415.500077105</v>
       </c>
     </row>
     <row r="3">
@@ -7579,28 +7579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>467.3859727468669</v>
+        <v>524.9495100592193</v>
       </c>
       <c r="AB3" t="n">
-        <v>639.4981075261226</v>
+        <v>718.2590788009186</v>
       </c>
       <c r="AC3" t="n">
-        <v>578.4653056850598</v>
+        <v>649.7094404031067</v>
       </c>
       <c r="AD3" t="n">
-        <v>467385.9727468669</v>
+        <v>524949.5100592193</v>
       </c>
       <c r="AE3" t="n">
-        <v>639498.1075261226</v>
+        <v>718259.0788009185</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.034879109555214e-06</v>
+        <v>3.669368568203464e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>578465.3056850597</v>
+        <v>649709.4404031066</v>
       </c>
     </row>
     <row r="4">
@@ -7685,28 +7685,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>466.9253134658946</v>
+        <v>524.488850778247</v>
       </c>
       <c r="AB4" t="n">
-        <v>638.8678131750431</v>
+        <v>717.6287844498391</v>
       </c>
       <c r="AC4" t="n">
-        <v>577.8951657422236</v>
+        <v>649.1393004602706</v>
       </c>
       <c r="AD4" t="n">
-        <v>466925.3134658947</v>
+        <v>524488.850778247</v>
       </c>
       <c r="AE4" t="n">
-        <v>638867.8131750431</v>
+        <v>717628.7844498391</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.042820697193827e-06</v>
+        <v>3.683689130012725e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.81597222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>577895.1657422236</v>
+        <v>649139.3004602706</v>
       </c>
     </row>
   </sheetData>
@@ -7982,28 +7982,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>522.7327725068094</v>
+        <v>578.1578441576463</v>
       </c>
       <c r="AB2" t="n">
-        <v>715.2260406861526</v>
+        <v>791.0610689004166</v>
       </c>
       <c r="AC2" t="n">
-        <v>646.9658711891182</v>
+        <v>715.5633107457435</v>
       </c>
       <c r="AD2" t="n">
-        <v>522732.7725068094</v>
+        <v>578157.8441576463</v>
       </c>
       <c r="AE2" t="n">
-        <v>715226.0406861526</v>
+        <v>791061.0689004166</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.893872619952028e-06</v>
+        <v>3.533360946201029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.15277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>646965.8711891181</v>
+        <v>715563.3107457435</v>
       </c>
     </row>
     <row r="3">
@@ -8088,28 +8088,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>452.100066116192</v>
+        <v>507.4397969124572</v>
       </c>
       <c r="AB3" t="n">
-        <v>618.583255707427</v>
+        <v>694.3015167994932</v>
       </c>
       <c r="AC3" t="n">
-        <v>559.5465379697615</v>
+        <v>628.038354494448</v>
       </c>
       <c r="AD3" t="n">
-        <v>452100.066116192</v>
+        <v>507439.7969124572</v>
       </c>
       <c r="AE3" t="n">
-        <v>618583.255707427</v>
+        <v>694301.5167994932</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.038323228025874e-06</v>
+        <v>3.80285960827897e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.29123263888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>559546.5379697615</v>
+        <v>628038.3544944479</v>
       </c>
     </row>
   </sheetData>
@@ -13990,28 +13990,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>435.0600935506534</v>
+        <v>488.8610294296096</v>
       </c>
       <c r="AB2" t="n">
-        <v>595.2684134927233</v>
+        <v>668.881227492087</v>
       </c>
       <c r="AC2" t="n">
-        <v>538.4568315734427</v>
+        <v>605.0441419209402</v>
       </c>
       <c r="AD2" t="n">
-        <v>435060.0935506534</v>
+        <v>488861.0294296097</v>
       </c>
       <c r="AE2" t="n">
-        <v>595268.4134927234</v>
+        <v>668881.2274920869</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.008823485656153e-06</v>
+        <v>3.863042057338975e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.85329861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>538456.8315734428</v>
+        <v>605044.1419209403</v>
       </c>
     </row>
     <row r="3">
@@ -14096,28 +14096,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>438.4834491169919</v>
+        <v>492.2843849959482</v>
       </c>
       <c r="AB3" t="n">
-        <v>599.9523996063764</v>
+        <v>673.5652136057399</v>
       </c>
       <c r="AC3" t="n">
-        <v>542.6937846264244</v>
+        <v>609.281094973922</v>
       </c>
       <c r="AD3" t="n">
-        <v>438483.4491169919</v>
+        <v>492284.3849959482</v>
       </c>
       <c r="AE3" t="n">
-        <v>599952.3996063764</v>
+        <v>673565.2136057399</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.008384638362727e-06</v>
+        <v>3.862198137719677e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.85546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>542693.7846264244</v>
+        <v>609281.094973922</v>
       </c>
     </row>
   </sheetData>
@@ -14393,28 +14393,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>457.5109576067642</v>
+        <v>516.2401735114621</v>
       </c>
       <c r="AB2" t="n">
-        <v>625.9866761565129</v>
+        <v>706.3425803074662</v>
       </c>
       <c r="AC2" t="n">
-        <v>566.2433863619526</v>
+        <v>638.9302358009587</v>
       </c>
       <c r="AD2" t="n">
-        <v>457510.9576067642</v>
+        <v>516240.1735114621</v>
       </c>
       <c r="AE2" t="n">
-        <v>625986.6761565129</v>
+        <v>706342.5803074662</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.795399114396635e-06</v>
+        <v>3.703188994929768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.23394097222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>566243.3863619526</v>
+        <v>638930.2358009587</v>
       </c>
     </row>
   </sheetData>
@@ -14690,28 +14690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1016.237677874256</v>
+        <v>1095.519485635755</v>
       </c>
       <c r="AB2" t="n">
-        <v>1390.461224109735</v>
+        <v>1498.938091155523</v>
       </c>
       <c r="AC2" t="n">
-        <v>1257.757556405286</v>
+        <v>1355.881543508463</v>
       </c>
       <c r="AD2" t="n">
-        <v>1016237.677874256</v>
+        <v>1095519.485635756</v>
       </c>
       <c r="AE2" t="n">
-        <v>1390461.224109735</v>
+        <v>1498938.091155523</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.361340937590154e-06</v>
+        <v>2.391822325473907e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.69878472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1257757.556405286</v>
+        <v>1355881.543508463</v>
       </c>
     </row>
     <row r="3">
@@ -14796,28 +14796,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>574.0022314700055</v>
+        <v>633.2929950905377</v>
       </c>
       <c r="AB3" t="n">
-        <v>785.3751762884939</v>
+        <v>866.4994147979882</v>
       </c>
       <c r="AC3" t="n">
-        <v>710.420071744502</v>
+        <v>783.8019267892342</v>
       </c>
       <c r="AD3" t="n">
-        <v>574002.2314700056</v>
+        <v>633292.9950905377</v>
       </c>
       <c r="AE3" t="n">
-        <v>785375.1762884939</v>
+        <v>866499.4147979881</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.885335087540763e-06</v>
+        <v>3.312459376533416e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.33463541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>710420.0717445021</v>
+        <v>783801.9267892343</v>
       </c>
     </row>
     <row r="4">
@@ -14902,28 +14902,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>493.2932843849699</v>
+        <v>552.6692993515226</v>
       </c>
       <c r="AB4" t="n">
-        <v>674.9456342592991</v>
+        <v>756.1865174214428</v>
       </c>
       <c r="AC4" t="n">
-        <v>610.5297702177381</v>
+        <v>684.0171375131824</v>
       </c>
       <c r="AD4" t="n">
-        <v>493293.2843849699</v>
+        <v>552669.2993515226</v>
       </c>
       <c r="AE4" t="n">
-        <v>674945.6342592991</v>
+        <v>756186.5174214428</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.016899865652774e-06</v>
+        <v>3.543613501738359e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.59678819444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>610529.7702177381</v>
+        <v>684017.1375131825</v>
       </c>
     </row>
     <row r="5">
@@ -15008,28 +15008,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>495.5838423706697</v>
+        <v>554.9598573372224</v>
       </c>
       <c r="AB5" t="n">
-        <v>678.0796767476201</v>
+        <v>759.3205599097638</v>
       </c>
       <c r="AC5" t="n">
-        <v>613.36470408963</v>
+        <v>686.8520713850743</v>
       </c>
       <c r="AD5" t="n">
-        <v>495583.8423706697</v>
+        <v>554959.8573372224</v>
       </c>
       <c r="AE5" t="n">
-        <v>678079.6767476201</v>
+        <v>759320.5599097637</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.016801389022451e-06</v>
+        <v>3.543440482183566e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.59678819444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>613364.7040896299</v>
+        <v>686852.0713850743</v>
       </c>
     </row>
   </sheetData>
@@ -15305,28 +15305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1480.258451144973</v>
+        <v>1582.752178014557</v>
       </c>
       <c r="AB2" t="n">
-        <v>2025.354917250464</v>
+        <v>2165.591356057532</v>
       </c>
       <c r="AC2" t="n">
-        <v>1832.057886551559</v>
+        <v>1958.910356461959</v>
       </c>
       <c r="AD2" t="n">
-        <v>1480258.451144973</v>
+        <v>1582752.178014557</v>
       </c>
       <c r="AE2" t="n">
-        <v>2025354.917250464</v>
+        <v>2165591.356057532</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.107806736074736e-06</v>
+        <v>1.894226062051355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.58940972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1832057.886551559</v>
+        <v>1958910.356461958</v>
       </c>
     </row>
     <row r="3">
@@ -15411,28 +15411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>745.2645488877837</v>
+        <v>806.7267381762563</v>
       </c>
       <c r="AB3" t="n">
-        <v>1019.703834539697</v>
+        <v>1103.799113444607</v>
       </c>
       <c r="AC3" t="n">
-        <v>922.3847317345483</v>
+        <v>998.4540752492389</v>
       </c>
       <c r="AD3" t="n">
-        <v>745264.5488877837</v>
+        <v>806726.7381762563</v>
       </c>
       <c r="AE3" t="n">
-        <v>1019703.834539697</v>
+        <v>1103799.113444607</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.671958787296622e-06</v>
+        <v>2.858863199184754e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>922384.7317345482</v>
+        <v>998454.075249239</v>
       </c>
     </row>
     <row r="4">
@@ -15517,28 +15517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>585.74133775914</v>
+        <v>647.2034375390617</v>
       </c>
       <c r="AB4" t="n">
-        <v>801.4371394061061</v>
+        <v>885.5322958414679</v>
       </c>
       <c r="AC4" t="n">
-        <v>724.9491036452763</v>
+        <v>801.0183363787405</v>
       </c>
       <c r="AD4" t="n">
-        <v>585741.3377591401</v>
+        <v>647203.4375390618</v>
       </c>
       <c r="AE4" t="n">
-        <v>801437.1394061061</v>
+        <v>885532.2958414679</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.888035191103559e-06</v>
+        <v>3.228329769622559e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.90711805555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>724949.1036452763</v>
+        <v>801018.3363787405</v>
       </c>
     </row>
     <row r="5">
@@ -15623,28 +15623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>528.9897602839487</v>
+        <v>580.1940428000058</v>
       </c>
       <c r="AB5" t="n">
-        <v>723.7871274016535</v>
+        <v>793.8470857136372</v>
       </c>
       <c r="AC5" t="n">
-        <v>654.7098998040524</v>
+        <v>718.0834340245093</v>
       </c>
       <c r="AD5" t="n">
-        <v>528989.7602839487</v>
+        <v>580194.0428000059</v>
       </c>
       <c r="AE5" t="n">
-        <v>723787.1274016534</v>
+        <v>793847.0857136372</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.978185645041455e-06</v>
+        <v>3.382476999273817e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.41015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>654709.8998040524</v>
+        <v>718083.4340245093</v>
       </c>
     </row>
     <row r="6">
@@ -15729,28 +15729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>531.0061909343297</v>
+        <v>582.2104734503869</v>
       </c>
       <c r="AB6" t="n">
-        <v>726.5460967761466</v>
+        <v>796.6060550881303</v>
       </c>
       <c r="AC6" t="n">
-        <v>657.2055570136818</v>
+        <v>720.5790912341388</v>
       </c>
       <c r="AD6" t="n">
-        <v>531006.1909343296</v>
+        <v>582210.4734503869</v>
       </c>
       <c r="AE6" t="n">
-        <v>726546.0967761466</v>
+        <v>796606.0550881303</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.977521378538754e-06</v>
+        <v>3.38134117758165e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.41449652777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>657205.5570136817</v>
+        <v>720579.0912341388</v>
       </c>
     </row>
   </sheetData>
@@ -16026,28 +16026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>492.8885401642971</v>
+        <v>566.0445555104507</v>
       </c>
       <c r="AB2" t="n">
-        <v>674.3918453605196</v>
+        <v>774.4871329727446</v>
       </c>
       <c r="AC2" t="n">
-        <v>610.0288341542106</v>
+        <v>700.5711680013433</v>
       </c>
       <c r="AD2" t="n">
-        <v>492888.5401642971</v>
+        <v>566044.5555104506</v>
       </c>
       <c r="AE2" t="n">
-        <v>674391.8453605196</v>
+        <v>774487.1329727445</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.565764660590072e-06</v>
+        <v>3.356154843912019e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.90104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>610028.8341542106</v>
+        <v>700571.1680013433</v>
       </c>
     </row>
   </sheetData>
@@ -16323,28 +16323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>591.74492255695</v>
+        <v>657.3072895279341</v>
       </c>
       <c r="AB2" t="n">
-        <v>809.6515089859381</v>
+        <v>899.3568318831334</v>
       </c>
       <c r="AC2" t="n">
-        <v>732.3795053213493</v>
+        <v>813.5234781034477</v>
       </c>
       <c r="AD2" t="n">
-        <v>591744.92255695</v>
+        <v>657307.2895279342</v>
       </c>
       <c r="AE2" t="n">
-        <v>809651.5089859382</v>
+        <v>899356.8318831334</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.783912538633217e-06</v>
+        <v>3.286738500957859e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.71484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>732379.5053213493</v>
+        <v>813523.4781034477</v>
       </c>
     </row>
     <row r="3">
@@ -16429,28 +16429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>458.9500861121577</v>
+        <v>505.8413954961056</v>
       </c>
       <c r="AB3" t="n">
-        <v>627.9557552674611</v>
+        <v>692.1145134651472</v>
       </c>
       <c r="AC3" t="n">
-        <v>568.0245393261716</v>
+        <v>626.0600756888535</v>
       </c>
       <c r="AD3" t="n">
-        <v>458950.0861121577</v>
+        <v>505841.3954961056</v>
       </c>
       <c r="AE3" t="n">
-        <v>627955.7552674611</v>
+        <v>692114.5134651472</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.043833476214845e-06</v>
+        <v>3.765625292912993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.09809027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>568024.5393261716</v>
+        <v>626060.0756888535</v>
       </c>
     </row>
   </sheetData>
@@ -16726,28 +16726,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>834.0185015220577</v>
+        <v>901.9295998623537</v>
       </c>
       <c r="AB2" t="n">
-        <v>1141.140908081956</v>
+        <v>1234.059868857359</v>
       </c>
       <c r="AC2" t="n">
-        <v>1032.232021415937</v>
+        <v>1116.282926987516</v>
       </c>
       <c r="AD2" t="n">
-        <v>834018.5015220577</v>
+        <v>901929.5998623538</v>
       </c>
       <c r="AE2" t="n">
-        <v>1141140.908081956</v>
+        <v>1234059.868857359</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.51185301900537e-06</v>
+        <v>2.700815086019284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1032232.021415937</v>
+        <v>1116282.926987516</v>
       </c>
     </row>
     <row r="3">
@@ -16832,28 +16832,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>487.0182677048043</v>
+        <v>545.2155122956469</v>
       </c>
       <c r="AB3" t="n">
-        <v>666.3598796032986</v>
+        <v>745.987917133717</v>
       </c>
       <c r="AC3" t="n">
-        <v>602.7634279359239</v>
+        <v>674.7918773230917</v>
       </c>
       <c r="AD3" t="n">
-        <v>487018.2677048043</v>
+        <v>545215.5122956469</v>
       </c>
       <c r="AE3" t="n">
-        <v>666359.8796032986</v>
+        <v>745987.917133717</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.006211347283132e-06</v>
+        <v>3.583950162066722e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.88541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>602763.4279359239</v>
+        <v>674791.8773230917</v>
       </c>
     </row>
     <row r="4">
@@ -16938,28 +16938,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>475.3107948407534</v>
+        <v>533.5080394315961</v>
       </c>
       <c r="AB4" t="n">
-        <v>650.3411987334541</v>
+        <v>729.9692362638725</v>
       </c>
       <c r="AC4" t="n">
-        <v>588.2735474859375</v>
+        <v>660.3019968731054</v>
       </c>
       <c r="AD4" t="n">
-        <v>475310.7948407534</v>
+        <v>533508.0394315961</v>
       </c>
       <c r="AE4" t="n">
-        <v>650341.1987334541</v>
+        <v>729969.2362638725</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.034788136461004e-06</v>
+        <v>3.635000510448052e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.73133680555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>588273.5474859375</v>
+        <v>660301.9968731054</v>
       </c>
     </row>
   </sheetData>
